--- a/Demo/Data/0_no_loc/data/Item.xlsx
+++ b/Demo/Data/0_no_loc/data/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC57B1B-A009-4B23-9862-ADEC68FCD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE775A35-A053-46EF-AC8D-6C36567DC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>灰色</t>
-  </si>
-  <si>
     <t>绿色</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   <si>
     <t>可删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
   </si>
 </sst>
 </file>
@@ -799,11 +799,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -821,76 +821,76 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -911,25 +911,25 @@
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -937,34 +937,34 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -972,21 +972,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:F3 J3:XFD3 G4:I4 A1:XFD1">
+  <conditionalFormatting sqref="A1:XFD1 A3:F3 J3:XFD3 G4:I4">
     <cfRule type="expression" dxfId="3" priority="15">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
@@ -1009,7 +1009,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0340732-8881-4BC9-A7C2-7D237ABA5FF0}">
           <x14:formula1>
-            <xm:f>'@EnumConfig_ItemSubType'!$C$5:$C$8</xm:f>
+            <xm:f>'@EnumConfig_ItemSubType'!$C$6:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>F4:F5</xm:sqref>
         </x14:dataValidation>
@@ -1037,7 +1037,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,27 +1049,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1112,11 +1112,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBBD7ED-714C-4183-A67A-A09FF8ED8A63}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1128,30 +1128,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1175,123 +1175,123 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Demo/Data/0_no_loc/data/Item.xlsx
+++ b/Demo/Data/0_no_loc/data/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE775A35-A053-46EF-AC8D-6C36567DC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C23FE-FFA4-4980-82C9-7E1D19CE34A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>#remark</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -263,16 +263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int_bool
-TupleAlias[PairItemIntBool]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_int_int64
-TupleAlias[PairItemIntInt64]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PairField2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -293,11 +283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int_int
-TupleAlias[PairItemIntBool]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1|3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,6 +308,36 @@
   </si>
   <si>
     <t>紫色</t>
+  </si>
+  <si>
+    <t>EnumFieldName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelVal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int_bool
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">list_int_int64
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -799,11 +814,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,16 +857,16 @@
         <v>48</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>50</v>
@@ -875,19 +890,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>51</v>
@@ -946,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>53</v>
@@ -955,7 +970,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -1037,28 +1052,28 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,9 +1129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBBD7ED-714C-4183-A67A-A09FF8ED8A63}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1250,7 +1265,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>25</v>
@@ -1265,13 +1280,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1280,13 +1295,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>

--- a/Demo/Data/0_no_loc/data/Item.xlsx
+++ b/Demo/Data/0_no_loc/data/Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C23FE-FFA4-4980-82C9-7E1D19CE34A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8590A9-A6DD-4AC7-954B-88FDF2E91262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>#remark</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -267,18 +267,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int_bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PairFieldList2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list_int_int64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PairField3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,16 +318,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>int_int
+Alias[PairItemIntInt64]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_int_int64
+Alias[PairItemIntInt64]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_bool
+Alias[PairItemIntBool]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">int_bool
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int_int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">list_int_int64
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -515,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -818,7 +816,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,13 +858,13 @@
         <v>58</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>50</v>
@@ -890,19 +888,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>51</v>
@@ -961,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>53</v>
@@ -970,7 +968,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -1052,7 +1050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,16 +1062,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,7 +1129,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1263,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>25</v>
@@ -1280,13 +1278,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1295,13 +1293,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>

--- a/Demo/Data/0_no_loc/data/Item.xlsx
+++ b/Demo/Data/0_no_loc/data/Item.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8590A9-A6DD-4AC7-954B-88FDF2E91262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C65D9-8C8D-4A0E-BD24-7C389D861CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
-    <sheet name="@EnumConfig_ItemType" sheetId="3" r:id="rId2"/>
-    <sheet name="@EnumConfig_ItemSubType" sheetId="4" r:id="rId3"/>
+    <sheet name="@@EnumConfig_ItemType" sheetId="3" r:id="rId2"/>
+    <sheet name="@@EnumConfig_ItemSubType" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -812,14 +812,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
@@ -832,7 +832,7 @@
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
@@ -870,7 +870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="36.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -945,7 +945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -980,7 +980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1022,19 +1022,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0340732-8881-4BC9-A7C2-7D237ABA5FF0}">
           <x14:formula1>
-            <xm:f>'@EnumConfig_ItemSubType'!$C$6:$C$9</xm:f>
+            <xm:f>'@@EnumConfig_ItemSubType'!$C$6:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>F4:F5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABA0D88B-5028-40B8-BC94-1B76F6C1355E}">
           <x14:formula1>
-            <xm:f>'@EnumConfig_ItemType'!$C$2:$C$4</xm:f>
+            <xm:f>'@@EnumConfig_ItemType'!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67A888EF-C072-41FD-B31B-31D7506AF195}">
           <x14:formula1>
-            <xm:f>'@EnumConfig_ItemSubType'!$C$2:$C$4</xm:f>
+            <xm:f>'@@EnumConfig_ItemSubType'!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E5</xm:sqref>
         </x14:dataValidation>
@@ -1053,14 +1053,14 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1127,19 +1127,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBBD7ED-714C-4183-A67A-A09FF8ED8A63}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>62</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>62</v>
       </c>
